--- a/TestCase/KG__ERP__IntegrationTestCase__EmployeeLeave__2019-08-05__v1.0.0.xlsx
+++ b/TestCase/KG__ERP__IntegrationTestCase__EmployeeLeave__2019-08-05__v1.0.0.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="133">
   <si>
     <t>General Guidelines</t>
   </si>
@@ -486,6 +486,9 @@
   </si>
   <si>
     <t>1. Employee can Apply to their line manager for late time approval for specific reason like on Field duty, missing punch card etc.</t>
+  </si>
+  <si>
+    <t>Non-privileged users are not allowed to access the page</t>
   </si>
 </sst>
 </file>
@@ -849,7 +852,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1034,6 +1037,48 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1061,44 +1106,26 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1880,30 +1907,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="F8" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="15.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" style="99" customWidth="1"/>
     <col min="5" max="5" width="20.7109375" customWidth="1"/>
     <col min="6" max="6" width="46.140625" customWidth="1"/>
-    <col min="7" max="7" width="28.7109375" style="90" customWidth="1"/>
-    <col min="8" max="8" width="21.7109375" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" style="78" customWidth="1"/>
+    <col min="8" max="8" width="26" customWidth="1"/>
     <col min="9" max="9" width="15.5703125" customWidth="1"/>
     <col min="10" max="10" width="17.7109375" customWidth="1"/>
+    <col min="16" max="16" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="26"/>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
+      <c r="D1" s="97"/>
       <c r="E1" s="26"/>
       <c r="F1" s="26"/>
-      <c r="G1" s="88"/>
+      <c r="G1" s="76"/>
       <c r="H1" s="26"/>
       <c r="I1" s="31"/>
       <c r="J1" s="26"/>
@@ -1920,10 +1948,10 @@
         <v>4</v>
       </c>
       <c r="C2" s="24"/>
-      <c r="D2" s="25"/>
+      <c r="D2" s="98"/>
       <c r="E2" s="24"/>
       <c r="F2" s="24"/>
-      <c r="G2" s="89"/>
+      <c r="G2" s="77"/>
       <c r="H2" s="25"/>
       <c r="I2" s="30"/>
       <c r="J2" s="25"/>
@@ -1939,10 +1967,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="4"/>
-      <c r="D4" s="73" t="s">
+      <c r="D4" s="87" t="s">
         <v>103</v>
       </c>
-      <c r="E4" s="73"/>
+      <c r="E4" s="87"/>
       <c r="F4" s="4"/>
       <c r="H4" s="9"/>
       <c r="I4" s="32"/>
@@ -1956,7 +1984,7 @@
         <v>23</v>
       </c>
       <c r="C5" s="4"/>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="73" t="s">
         <v>105</v>
       </c>
       <c r="E5" s="9"/>
@@ -1975,8 +2003,8 @@
         <v>24</v>
       </c>
       <c r="C6" s="4"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="87"/>
       <c r="F6" s="4"/>
       <c r="H6" s="9"/>
       <c r="I6" s="32"/>
@@ -1991,10 +2019,10 @@
       <c r="A7" s="27"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
-      <c r="D7" s="5"/>
+      <c r="D7" s="3"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="91"/>
+      <c r="G7" s="79"/>
       <c r="H7" s="4"/>
       <c r="I7" s="33"/>
       <c r="J7" s="4"/>
@@ -2007,49 +2035,49 @@
     </row>
     <row r="8" spans="1:16" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A8" s="27"/>
-      <c r="B8" s="82" t="s">
+      <c r="B8" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="82"/>
-      <c r="D8" s="82"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="82"/>
-      <c r="J8" s="82"/>
-      <c r="K8" s="83" t="s">
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="96"/>
+      <c r="J8" s="96"/>
+      <c r="K8" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="L8" s="83"/>
-      <c r="M8" s="83"/>
-      <c r="N8" s="83"/>
-      <c r="O8" s="83"/>
+      <c r="L8" s="84"/>
+      <c r="M8" s="84"/>
+      <c r="N8" s="84"/>
+      <c r="O8" s="84"/>
       <c r="P8" s="40" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="95" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="93"/>
-      <c r="B9" s="94" t="s">
+    <row r="9" spans="1:16" s="83" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="81"/>
+      <c r="B9" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="92" t="s">
+      <c r="C9" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="92" t="s">
+      <c r="D9" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="92" t="s">
+      <c r="E9" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="92" t="s">
+      <c r="F9" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="92" t="s">
+      <c r="G9" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="92" t="s">
+      <c r="H9" s="80" t="s">
         <v>31</v>
       </c>
       <c r="I9" s="71" t="s">
@@ -2079,25 +2107,27 @@
     </row>
     <row r="10" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="27"/>
-      <c r="B10" s="74" t="s">
+      <c r="B10" s="88" t="s">
         <v>104</v>
       </c>
-      <c r="C10" s="77" t="s">
+      <c r="C10" s="91" t="s">
         <v>95</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="100" t="s">
         <v>97</v>
       </c>
-      <c r="E10" s="80" t="s">
+      <c r="E10" s="94" t="s">
         <v>106</v>
       </c>
       <c r="F10" s="67" t="s">
         <v>108</v>
       </c>
-      <c r="G10" s="86" t="s">
+      <c r="G10" s="103" t="s">
+        <v>132</v>
+      </c>
+      <c r="H10" s="74" t="s">
         <v>126</v>
       </c>
-      <c r="H10" s="66"/>
       <c r="I10" s="68"/>
       <c r="J10" s="68"/>
       <c r="K10" s="68"/>
@@ -2109,19 +2139,18 @@
     </row>
     <row r="11" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="27"/>
-      <c r="B11" s="75"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="53" t="s">
+      <c r="B11" s="89"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="100" t="s">
         <v>98</v>
       </c>
-      <c r="E11" s="81"/>
+      <c r="E11" s="95"/>
       <c r="F11" s="67" t="s">
         <v>112</v>
       </c>
-      <c r="G11" s="86" t="s">
+      <c r="H11" s="74" t="s">
         <v>127</v>
       </c>
-      <c r="H11" s="66"/>
       <c r="I11" s="68"/>
       <c r="J11" s="68"/>
       <c r="K11" s="68"/>
@@ -2133,19 +2162,18 @@
     </row>
     <row r="12" spans="1:16" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="27"/>
-      <c r="B12" s="75"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="53" t="s">
+      <c r="B12" s="89"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="100" t="s">
         <v>114</v>
       </c>
-      <c r="E12" s="81"/>
+      <c r="E12" s="95"/>
       <c r="F12" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="G12" s="86" t="s">
+      <c r="H12" s="74" t="s">
         <v>128</v>
       </c>
-      <c r="H12" s="66"/>
       <c r="I12" s="68"/>
       <c r="J12" s="68"/>
       <c r="K12" s="68"/>
@@ -2157,19 +2185,18 @@
     </row>
     <row r="13" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="27"/>
-      <c r="B13" s="75"/>
-      <c r="C13" s="78"/>
-      <c r="D13" s="53" t="s">
+      <c r="B13" s="89"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="100" t="s">
         <v>115</v>
       </c>
-      <c r="E13" s="81"/>
-      <c r="F13" s="86" t="s">
+      <c r="E13" s="95"/>
+      <c r="F13" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="G13" s="86" t="s">
+      <c r="H13" s="74" t="s">
         <v>129</v>
       </c>
-      <c r="H13" s="66"/>
       <c r="I13" s="68"/>
       <c r="J13" s="68"/>
       <c r="K13" s="68"/>
@@ -2181,19 +2208,18 @@
     </row>
     <row r="14" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="27"/>
-      <c r="B14" s="75"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="53" t="s">
+      <c r="B14" s="89"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="100" t="s">
         <v>116</v>
       </c>
-      <c r="E14" s="81"/>
+      <c r="E14" s="95"/>
       <c r="F14" s="69" t="s">
         <v>111</v>
       </c>
-      <c r="G14" s="53" t="s">
+      <c r="H14" s="53" t="s">
         <v>130</v>
       </c>
-      <c r="H14" s="66"/>
       <c r="I14" s="68"/>
       <c r="J14" s="68"/>
       <c r="K14" s="68"/>
@@ -2205,12 +2231,12 @@
     </row>
     <row r="15" spans="1:16" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="27"/>
-      <c r="B15" s="75"/>
-      <c r="C15" s="78"/>
-      <c r="D15" s="53" t="s">
+      <c r="B15" s="89"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="100" t="s">
         <v>117</v>
       </c>
-      <c r="E15" s="81"/>
+      <c r="E15" s="95"/>
       <c r="F15" s="69" t="s">
         <v>121</v>
       </c>
@@ -2227,12 +2253,12 @@
     </row>
     <row r="16" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="27"/>
-      <c r="B16" s="75"/>
-      <c r="C16" s="78"/>
-      <c r="D16" s="53" t="s">
+      <c r="B16" s="89"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="100" t="s">
         <v>118</v>
       </c>
-      <c r="E16" s="81"/>
+      <c r="E16" s="95"/>
       <c r="F16" s="69" t="s">
         <v>113</v>
       </c>
@@ -2249,15 +2275,15 @@
     </row>
     <row r="17" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="55"/>
-      <c r="B17" s="75"/>
-      <c r="C17" s="78"/>
-      <c r="D17" s="53" t="s">
+      <c r="B17" s="89"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="100" t="s">
         <v>123</v>
       </c>
-      <c r="E17" s="84" t="s">
+      <c r="E17" s="85" t="s">
         <v>107</v>
       </c>
-      <c r="F17" s="87" t="s">
+      <c r="F17" s="75" t="s">
         <v>124</v>
       </c>
       <c r="G17" s="62"/>
@@ -2273,12 +2299,12 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="55"/>
-      <c r="B18" s="75"/>
-      <c r="C18" s="78"/>
-      <c r="D18" s="53" t="s">
+      <c r="B18" s="89"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="100" t="s">
         <v>119</v>
       </c>
-      <c r="E18" s="85"/>
+      <c r="E18" s="86"/>
       <c r="F18" s="62" t="s">
         <v>125</v>
       </c>
@@ -2295,9 +2321,9 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="55"/>
-      <c r="B19" s="75"/>
-      <c r="C19" s="78"/>
-      <c r="D19" s="53"/>
+      <c r="B19" s="89"/>
+      <c r="C19" s="92"/>
+      <c r="D19" s="100"/>
       <c r="E19" s="62"/>
       <c r="F19" s="62"/>
       <c r="G19" s="62"/>
@@ -2313,9 +2339,9 @@
     </row>
     <row r="20" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A20" s="55"/>
-      <c r="B20" s="76"/>
-      <c r="C20" s="79"/>
-      <c r="D20" s="53" t="s">
+      <c r="B20" s="90"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="100" t="s">
         <v>120</v>
       </c>
       <c r="E20" s="62" t="s">
@@ -2339,7 +2365,7 @@
       <c r="A21" s="55"/>
       <c r="B21" s="62"/>
       <c r="C21" s="62"/>
-      <c r="D21" s="62"/>
+      <c r="D21" s="101"/>
       <c r="E21" s="62"/>
       <c r="F21" s="62"/>
       <c r="G21" s="62"/>
@@ -2357,7 +2383,7 @@
       <c r="A22" s="55"/>
       <c r="B22" s="62"/>
       <c r="C22" s="62"/>
-      <c r="D22" s="62"/>
+      <c r="D22" s="101"/>
       <c r="E22" s="62"/>
       <c r="F22" s="62"/>
       <c r="G22" s="62"/>
@@ -2375,7 +2401,7 @@
       <c r="A23" s="55"/>
       <c r="B23" s="62"/>
       <c r="C23" s="62"/>
-      <c r="D23" s="62"/>
+      <c r="D23" s="101"/>
       <c r="E23" s="62"/>
       <c r="F23" s="62"/>
       <c r="G23" s="62"/>
@@ -2393,7 +2419,7 @@
       <c r="A24" s="55"/>
       <c r="B24" s="62"/>
       <c r="C24" s="62"/>
-      <c r="D24" s="62"/>
+      <c r="D24" s="101"/>
       <c r="E24" s="62"/>
       <c r="F24" s="62"/>
       <c r="G24" s="62"/>
@@ -2411,7 +2437,7 @@
       <c r="A25" s="55"/>
       <c r="B25" s="62"/>
       <c r="C25" s="62"/>
-      <c r="D25" s="62"/>
+      <c r="D25" s="101"/>
       <c r="E25" s="62"/>
       <c r="F25" s="62"/>
       <c r="G25" s="62"/>
@@ -2429,7 +2455,7 @@
       <c r="A26" s="55"/>
       <c r="B26" s="62"/>
       <c r="C26" s="62"/>
-      <c r="D26" s="62"/>
+      <c r="D26" s="101"/>
       <c r="E26" s="62"/>
       <c r="F26" s="62"/>
       <c r="G26" s="62"/>
@@ -2447,7 +2473,7 @@
       <c r="A27" s="55"/>
       <c r="B27" s="62"/>
       <c r="C27" s="62"/>
-      <c r="D27" s="62"/>
+      <c r="D27" s="101"/>
       <c r="E27" s="62"/>
       <c r="F27" s="62"/>
       <c r="G27" s="62"/>
@@ -2465,7 +2491,7 @@
       <c r="A28" s="55"/>
       <c r="B28" s="62"/>
       <c r="C28" s="62"/>
-      <c r="D28" s="62"/>
+      <c r="D28" s="101"/>
       <c r="E28" s="62"/>
       <c r="F28" s="62"/>
       <c r="G28" s="62"/>
@@ -2483,7 +2509,7 @@
       <c r="A29" s="55"/>
       <c r="B29" s="62"/>
       <c r="C29" s="62"/>
-      <c r="D29" s="62"/>
+      <c r="D29" s="101"/>
       <c r="E29" s="62"/>
       <c r="F29" s="62"/>
       <c r="G29" s="62"/>
@@ -2501,7 +2527,7 @@
       <c r="A30" s="55"/>
       <c r="B30" s="62"/>
       <c r="C30" s="62"/>
-      <c r="D30" s="62"/>
+      <c r="D30" s="101"/>
       <c r="E30" s="62"/>
       <c r="F30" s="62"/>
       <c r="G30" s="62"/>
@@ -2519,7 +2545,7 @@
       <c r="A31" s="55"/>
       <c r="B31" s="62"/>
       <c r="C31" s="62"/>
-      <c r="D31" s="62"/>
+      <c r="D31" s="101"/>
       <c r="E31" s="62"/>
       <c r="F31" s="62"/>
       <c r="G31" s="62"/>
@@ -2537,7 +2563,7 @@
       <c r="A32" s="55"/>
       <c r="B32" s="62"/>
       <c r="C32" s="62"/>
-      <c r="D32" s="62"/>
+      <c r="D32" s="101"/>
       <c r="E32" s="62"/>
       <c r="F32" s="62"/>
       <c r="G32" s="54"/>
@@ -2555,7 +2581,7 @@
       <c r="A33" s="55"/>
       <c r="B33" s="62"/>
       <c r="C33" s="62"/>
-      <c r="D33" s="62"/>
+      <c r="D33" s="101"/>
       <c r="E33" s="62"/>
       <c r="F33" s="62"/>
       <c r="G33" s="54"/>
@@ -2573,7 +2599,7 @@
       <c r="A34" s="55"/>
       <c r="B34" s="62"/>
       <c r="C34" s="62"/>
-      <c r="D34" s="62"/>
+      <c r="D34" s="101"/>
       <c r="E34" s="62"/>
       <c r="F34" s="62"/>
       <c r="G34" s="54"/>
@@ -2591,7 +2617,7 @@
       <c r="A35" s="55"/>
       <c r="B35" s="54"/>
       <c r="C35" s="54"/>
-      <c r="D35" s="54"/>
+      <c r="D35" s="102"/>
       <c r="E35" s="54"/>
       <c r="F35" s="54"/>
       <c r="G35" s="54"/>
@@ -2609,7 +2635,7 @@
       <c r="A36" s="55"/>
       <c r="B36" s="54"/>
       <c r="C36" s="54"/>
-      <c r="D36" s="54"/>
+      <c r="D36" s="102"/>
       <c r="E36" s="54"/>
       <c r="F36" s="54"/>
       <c r="G36" s="54"/>
@@ -2627,7 +2653,7 @@
       <c r="A37" s="55"/>
       <c r="B37" s="54"/>
       <c r="C37" s="54"/>
-      <c r="D37" s="54"/>
+      <c r="D37" s="102"/>
       <c r="E37" s="54"/>
       <c r="F37" s="54"/>
       <c r="G37" s="54"/>
@@ -2645,7 +2671,7 @@
       <c r="A38" s="55"/>
       <c r="B38" s="54"/>
       <c r="C38" s="54"/>
-      <c r="D38" s="54"/>
+      <c r="D38" s="102"/>
       <c r="E38" s="54"/>
       <c r="F38" s="54"/>
       <c r="G38" s="54"/>
@@ -2663,7 +2689,7 @@
       <c r="A39" s="55"/>
       <c r="B39" s="54"/>
       <c r="C39" s="54"/>
-      <c r="D39" s="54"/>
+      <c r="D39" s="102"/>
       <c r="E39" s="54"/>
       <c r="F39" s="54"/>
       <c r="G39" s="54"/>
@@ -2681,7 +2707,7 @@
       <c r="A40" s="55"/>
       <c r="B40" s="54"/>
       <c r="C40" s="54"/>
-      <c r="D40" s="54"/>
+      <c r="D40" s="102"/>
       <c r="E40" s="54"/>
       <c r="F40" s="54"/>
       <c r="G40" s="54"/>
@@ -2699,7 +2725,7 @@
       <c r="A41" s="55"/>
       <c r="B41" s="54"/>
       <c r="C41" s="54"/>
-      <c r="D41" s="54"/>
+      <c r="D41" s="102"/>
       <c r="E41" s="54"/>
       <c r="F41" s="54"/>
       <c r="G41" s="54"/>
@@ -2717,7 +2743,7 @@
       <c r="A42" s="55"/>
       <c r="B42" s="54"/>
       <c r="C42" s="54"/>
-      <c r="D42" s="54"/>
+      <c r="D42" s="102"/>
       <c r="E42" s="54"/>
       <c r="F42" s="54"/>
       <c r="G42" s="54"/>
@@ -2735,7 +2761,7 @@
       <c r="A43" s="55"/>
       <c r="B43" s="54"/>
       <c r="C43" s="54"/>
-      <c r="D43" s="54"/>
+      <c r="D43" s="102"/>
       <c r="E43" s="54"/>
       <c r="F43" s="54"/>
       <c r="G43" s="54"/>
@@ -2753,7 +2779,7 @@
       <c r="A44" s="55"/>
       <c r="B44" s="54"/>
       <c r="C44" s="54"/>
-      <c r="D44" s="54"/>
+      <c r="D44" s="102"/>
       <c r="E44" s="54"/>
       <c r="F44" s="54"/>
       <c r="G44" s="54"/>
@@ -2771,7 +2797,7 @@
       <c r="A45" s="55"/>
       <c r="B45" s="54"/>
       <c r="C45" s="54"/>
-      <c r="D45" s="54"/>
+      <c r="D45" s="102"/>
       <c r="E45" s="54"/>
       <c r="F45" s="54"/>
       <c r="G45" s="54"/>
@@ -2789,7 +2815,7 @@
       <c r="A46" s="55"/>
       <c r="B46" s="54"/>
       <c r="C46" s="54"/>
-      <c r="D46" s="54"/>
+      <c r="D46" s="102"/>
       <c r="E46" s="54"/>
       <c r="F46" s="54"/>
       <c r="G46" s="54"/>
@@ -2807,7 +2833,7 @@
       <c r="A47" s="55"/>
       <c r="B47" s="54"/>
       <c r="C47" s="54"/>
-      <c r="D47" s="54"/>
+      <c r="D47" s="102"/>
       <c r="E47" s="54"/>
       <c r="F47" s="54"/>
       <c r="G47" s="54"/>
@@ -2825,7 +2851,7 @@
       <c r="A48" s="55"/>
       <c r="B48" s="54"/>
       <c r="C48" s="54"/>
-      <c r="D48" s="54"/>
+      <c r="D48" s="102"/>
       <c r="E48" s="54"/>
       <c r="F48" s="54"/>
       <c r="G48" s="54"/>
@@ -2843,7 +2869,7 @@
       <c r="A49" s="55"/>
       <c r="B49" s="54"/>
       <c r="C49" s="54"/>
-      <c r="D49" s="54"/>
+      <c r="D49" s="102"/>
       <c r="E49" s="54"/>
       <c r="F49" s="54"/>
       <c r="G49" s="54"/>
@@ -2861,7 +2887,7 @@
       <c r="A50" s="55"/>
       <c r="B50" s="54"/>
       <c r="C50" s="54"/>
-      <c r="D50" s="54"/>
+      <c r="D50" s="102"/>
       <c r="E50" s="54"/>
       <c r="F50" s="54"/>
       <c r="G50" s="54"/>
@@ -2879,7 +2905,7 @@
       <c r="A51" s="55"/>
       <c r="B51" s="54"/>
       <c r="C51" s="54"/>
-      <c r="D51" s="54"/>
+      <c r="D51" s="102"/>
       <c r="E51" s="54"/>
       <c r="F51" s="54"/>
       <c r="G51" s="54"/>
@@ -2897,7 +2923,7 @@
       <c r="A52" s="55"/>
       <c r="B52" s="54"/>
       <c r="C52" s="54"/>
-      <c r="D52" s="54"/>
+      <c r="D52" s="102"/>
       <c r="E52" s="54"/>
       <c r="F52" s="54"/>
       <c r="G52" s="54"/>
@@ -2915,7 +2941,7 @@
       <c r="A53" s="55"/>
       <c r="B53" s="54"/>
       <c r="C53" s="54"/>
-      <c r="D53" s="54"/>
+      <c r="D53" s="102"/>
       <c r="E53" s="54"/>
       <c r="F53" s="54"/>
       <c r="G53" s="54"/>
@@ -2933,7 +2959,7 @@
       <c r="A54" s="55"/>
       <c r="B54" s="54"/>
       <c r="C54" s="54"/>
-      <c r="D54" s="54"/>
+      <c r="D54" s="102"/>
       <c r="E54" s="54"/>
       <c r="F54" s="54"/>
       <c r="G54" s="54"/>
@@ -2951,7 +2977,7 @@
       <c r="A55" s="55"/>
       <c r="B55" s="54"/>
       <c r="C55" s="54"/>
-      <c r="D55" s="54"/>
+      <c r="D55" s="102"/>
       <c r="E55" s="54"/>
       <c r="F55" s="54"/>
       <c r="G55" s="54"/>
@@ -2969,7 +2995,7 @@
       <c r="A56" s="55"/>
       <c r="B56" s="54"/>
       <c r="C56" s="54"/>
-      <c r="D56" s="54"/>
+      <c r="D56" s="102"/>
       <c r="E56" s="54"/>
       <c r="F56" s="54"/>
       <c r="G56" s="54"/>
@@ -2987,7 +3013,7 @@
       <c r="A57" s="55"/>
       <c r="B57" s="54"/>
       <c r="C57" s="54"/>
-      <c r="D57" s="54"/>
+      <c r="D57" s="102"/>
       <c r="E57" s="54"/>
       <c r="F57" s="54"/>
       <c r="G57" s="54"/>
@@ -3005,7 +3031,7 @@
       <c r="A58" s="55"/>
       <c r="B58" s="54"/>
       <c r="C58" s="54"/>
-      <c r="D58" s="54"/>
+      <c r="D58" s="102"/>
       <c r="E58" s="54"/>
       <c r="F58" s="54"/>
       <c r="G58" s="54"/>
@@ -3023,7 +3049,7 @@
       <c r="A59" s="55"/>
       <c r="B59" s="54"/>
       <c r="C59" s="54"/>
-      <c r="D59" s="54"/>
+      <c r="D59" s="102"/>
       <c r="E59" s="54"/>
       <c r="F59" s="54"/>
       <c r="G59" s="54"/>
@@ -3041,7 +3067,7 @@
       <c r="A60" s="55"/>
       <c r="B60" s="55"/>
       <c r="C60" s="55"/>
-      <c r="D60" s="55"/>
+      <c r="D60" s="57"/>
       <c r="E60" s="55"/>
       <c r="F60" s="55"/>
       <c r="G60" s="54"/>
@@ -3059,7 +3085,7 @@
       <c r="A61" s="55"/>
       <c r="B61" s="55"/>
       <c r="C61" s="55"/>
-      <c r="D61" s="55"/>
+      <c r="D61" s="57"/>
       <c r="E61" s="55"/>
       <c r="F61" s="55"/>
       <c r="G61" s="54"/>
@@ -3077,7 +3103,7 @@
       <c r="A62" s="55"/>
       <c r="B62" s="55"/>
       <c r="C62" s="55"/>
-      <c r="D62" s="55"/>
+      <c r="D62" s="57"/>
       <c r="E62" s="55"/>
       <c r="F62" s="55"/>
       <c r="G62" s="54"/>
@@ -3095,7 +3121,7 @@
       <c r="A63" s="55"/>
       <c r="B63" s="55"/>
       <c r="C63" s="55"/>
-      <c r="D63" s="55"/>
+      <c r="D63" s="57"/>
       <c r="E63" s="55"/>
       <c r="F63" s="55"/>
       <c r="G63" s="54"/>
@@ -3113,7 +3139,7 @@
       <c r="A64" s="55"/>
       <c r="B64" s="55"/>
       <c r="C64" s="55"/>
-      <c r="D64" s="55"/>
+      <c r="D64" s="57"/>
       <c r="E64" s="55"/>
       <c r="F64" s="55"/>
       <c r="G64" s="54"/>
@@ -3131,7 +3157,7 @@
       <c r="A65" s="55"/>
       <c r="B65" s="55"/>
       <c r="C65" s="55"/>
-      <c r="D65" s="55"/>
+      <c r="D65" s="57"/>
       <c r="E65" s="55"/>
       <c r="F65" s="55"/>
       <c r="G65" s="54"/>
@@ -3149,7 +3175,7 @@
       <c r="A66" s="55"/>
       <c r="B66" s="55"/>
       <c r="C66" s="55"/>
-      <c r="D66" s="55"/>
+      <c r="D66" s="57"/>
       <c r="E66" s="55"/>
       <c r="F66" s="55"/>
       <c r="G66" s="54"/>
@@ -3167,7 +3193,7 @@
       <c r="A67" s="55"/>
       <c r="B67" s="55"/>
       <c r="C67" s="55"/>
-      <c r="D67" s="55"/>
+      <c r="D67" s="57"/>
       <c r="E67" s="55"/>
       <c r="F67" s="55"/>
       <c r="G67" s="54"/>
@@ -3185,7 +3211,7 @@
       <c r="A68" s="55"/>
       <c r="B68" s="55"/>
       <c r="C68" s="55"/>
-      <c r="D68" s="55"/>
+      <c r="D68" s="57"/>
       <c r="E68" s="55"/>
       <c r="F68" s="55"/>
       <c r="G68" s="54"/>
@@ -3203,7 +3229,7 @@
       <c r="A69" s="55"/>
       <c r="B69" s="55"/>
       <c r="C69" s="55"/>
-      <c r="D69" s="55"/>
+      <c r="D69" s="57"/>
       <c r="E69" s="55"/>
       <c r="F69" s="55"/>
       <c r="G69" s="54"/>
@@ -3221,7 +3247,7 @@
       <c r="A70" s="55"/>
       <c r="B70" s="55"/>
       <c r="C70" s="55"/>
-      <c r="D70" s="55"/>
+      <c r="D70" s="57"/>
       <c r="E70" s="55"/>
       <c r="F70" s="55"/>
       <c r="G70" s="54"/>
@@ -3239,7 +3265,7 @@
       <c r="A71" s="55"/>
       <c r="B71" s="55"/>
       <c r="C71" s="55"/>
-      <c r="D71" s="55"/>
+      <c r="D71" s="57"/>
       <c r="E71" s="55"/>
       <c r="F71" s="55"/>
       <c r="G71" s="54"/>
@@ -3257,7 +3283,7 @@
       <c r="A72" s="55"/>
       <c r="B72" s="55"/>
       <c r="C72" s="55"/>
-      <c r="D72" s="55"/>
+      <c r="D72" s="57"/>
       <c r="E72" s="55"/>
       <c r="F72" s="55"/>
       <c r="G72" s="54"/>
@@ -3275,7 +3301,7 @@
       <c r="A73" s="55"/>
       <c r="B73" s="55"/>
       <c r="C73" s="55"/>
-      <c r="D73" s="55"/>
+      <c r="D73" s="57"/>
       <c r="E73" s="55"/>
       <c r="F73" s="55"/>
       <c r="G73" s="54"/>
@@ -3293,7 +3319,7 @@
       <c r="A74" s="55"/>
       <c r="B74" s="55"/>
       <c r="C74" s="55"/>
-      <c r="D74" s="55"/>
+      <c r="D74" s="57"/>
       <c r="E74" s="55"/>
       <c r="F74" s="55"/>
       <c r="G74" s="54"/>
@@ -3311,7 +3337,7 @@
       <c r="A75" s="55"/>
       <c r="B75" s="55"/>
       <c r="C75" s="55"/>
-      <c r="D75" s="55"/>
+      <c r="D75" s="57"/>
       <c r="E75" s="55"/>
       <c r="F75" s="55"/>
       <c r="G75" s="54"/>
@@ -3329,7 +3355,7 @@
       <c r="A76" s="55"/>
       <c r="B76" s="55"/>
       <c r="C76" s="55"/>
-      <c r="D76" s="55"/>
+      <c r="D76" s="57"/>
       <c r="E76" s="55"/>
       <c r="F76" s="55"/>
       <c r="G76" s="54"/>
@@ -3347,7 +3373,7 @@
       <c r="A77" s="55"/>
       <c r="B77" s="55"/>
       <c r="C77" s="55"/>
-      <c r="D77" s="55"/>
+      <c r="D77" s="57"/>
       <c r="E77" s="55"/>
       <c r="F77" s="55"/>
       <c r="G77" s="54"/>
@@ -3365,7 +3391,7 @@
       <c r="A78" s="55"/>
       <c r="B78" s="55"/>
       <c r="C78" s="55"/>
-      <c r="D78" s="55"/>
+      <c r="D78" s="57"/>
       <c r="E78" s="55"/>
       <c r="F78" s="55"/>
       <c r="G78" s="54"/>
@@ -3383,7 +3409,7 @@
       <c r="A79" s="55"/>
       <c r="B79" s="55"/>
       <c r="C79" s="55"/>
-      <c r="D79" s="55"/>
+      <c r="D79" s="57"/>
       <c r="E79" s="55"/>
       <c r="F79" s="55"/>
       <c r="G79" s="54"/>
@@ -3401,7 +3427,7 @@
       <c r="A80" s="55"/>
       <c r="B80" s="55"/>
       <c r="C80" s="55"/>
-      <c r="D80" s="55"/>
+      <c r="D80" s="57"/>
       <c r="E80" s="55"/>
       <c r="F80" s="55"/>
       <c r="G80" s="54"/>
@@ -3419,7 +3445,7 @@
       <c r="A81" s="55"/>
       <c r="B81" s="55"/>
       <c r="C81" s="55"/>
-      <c r="D81" s="55"/>
+      <c r="D81" s="57"/>
       <c r="E81" s="55"/>
       <c r="F81" s="55"/>
       <c r="G81" s="54"/>
@@ -3437,7 +3463,7 @@
       <c r="A82" s="55"/>
       <c r="B82" s="55"/>
       <c r="C82" s="55"/>
-      <c r="D82" s="55"/>
+      <c r="D82" s="57"/>
       <c r="E82" s="55"/>
       <c r="F82" s="55"/>
       <c r="G82" s="54"/>
@@ -3455,7 +3481,7 @@
       <c r="A83" s="55"/>
       <c r="B83" s="55"/>
       <c r="C83" s="55"/>
-      <c r="D83" s="55"/>
+      <c r="D83" s="57"/>
       <c r="E83" s="55"/>
       <c r="F83" s="55"/>
       <c r="G83" s="54"/>
@@ -3473,7 +3499,7 @@
       <c r="A84" s="55"/>
       <c r="B84" s="55"/>
       <c r="C84" s="55"/>
-      <c r="D84" s="55"/>
+      <c r="D84" s="57"/>
       <c r="E84" s="55"/>
       <c r="F84" s="55"/>
       <c r="G84" s="54"/>
@@ -3491,7 +3517,7 @@
       <c r="A85" s="55"/>
       <c r="B85" s="55"/>
       <c r="C85" s="55"/>
-      <c r="D85" s="55"/>
+      <c r="D85" s="57"/>
       <c r="E85" s="55"/>
       <c r="F85" s="55"/>
       <c r="G85" s="54"/>
@@ -3509,7 +3535,7 @@
       <c r="A86" s="55"/>
       <c r="B86" s="55"/>
       <c r="C86" s="55"/>
-      <c r="D86" s="55"/>
+      <c r="D86" s="57"/>
       <c r="E86" s="55"/>
       <c r="F86" s="55"/>
       <c r="G86" s="54"/>
@@ -3527,7 +3553,7 @@
       <c r="A87" s="55"/>
       <c r="B87" s="55"/>
       <c r="C87" s="55"/>
-      <c r="D87" s="55"/>
+      <c r="D87" s="57"/>
       <c r="E87" s="55"/>
       <c r="F87" s="55"/>
       <c r="G87" s="54"/>
@@ -3545,7 +3571,7 @@
       <c r="A88" s="55"/>
       <c r="B88" s="55"/>
       <c r="C88" s="55"/>
-      <c r="D88" s="55"/>
+      <c r="D88" s="57"/>
       <c r="E88" s="55"/>
       <c r="F88" s="55"/>
       <c r="G88" s="54"/>
@@ -3563,7 +3589,7 @@
       <c r="A89" s="55"/>
       <c r="B89" s="55"/>
       <c r="C89" s="55"/>
-      <c r="D89" s="55"/>
+      <c r="D89" s="57"/>
       <c r="E89" s="55"/>
       <c r="F89" s="55"/>
       <c r="G89" s="54"/>
@@ -3581,7 +3607,7 @@
       <c r="A90" s="55"/>
       <c r="B90" s="55"/>
       <c r="C90" s="55"/>
-      <c r="D90" s="55"/>
+      <c r="D90" s="57"/>
       <c r="E90" s="55"/>
       <c r="F90" s="55"/>
       <c r="G90" s="54"/>
@@ -3599,7 +3625,7 @@
       <c r="A91" s="55"/>
       <c r="B91" s="55"/>
       <c r="C91" s="55"/>
-      <c r="D91" s="55"/>
+      <c r="D91" s="57"/>
       <c r="E91" s="55"/>
       <c r="F91" s="55"/>
       <c r="G91" s="54"/>
@@ -3617,7 +3643,7 @@
       <c r="A92" s="55"/>
       <c r="B92" s="55"/>
       <c r="C92" s="55"/>
-      <c r="D92" s="55"/>
+      <c r="D92" s="57"/>
       <c r="E92" s="55"/>
       <c r="F92" s="55"/>
       <c r="G92" s="54"/>
@@ -3635,7 +3661,7 @@
       <c r="A93" s="55"/>
       <c r="B93" s="55"/>
       <c r="C93" s="55"/>
-      <c r="D93" s="55"/>
+      <c r="D93" s="57"/>
       <c r="E93" s="55"/>
       <c r="F93" s="55"/>
       <c r="G93" s="54"/>
@@ -3653,7 +3679,7 @@
       <c r="A94" s="55"/>
       <c r="B94" s="55"/>
       <c r="C94" s="55"/>
-      <c r="D94" s="55"/>
+      <c r="D94" s="57"/>
       <c r="E94" s="55"/>
       <c r="F94" s="55"/>
       <c r="G94" s="54"/>
@@ -3671,7 +3697,7 @@
       <c r="A95" s="55"/>
       <c r="B95" s="55"/>
       <c r="C95" s="55"/>
-      <c r="D95" s="55"/>
+      <c r="D95" s="57"/>
       <c r="E95" s="55"/>
       <c r="F95" s="55"/>
       <c r="G95" s="54"/>
@@ -3689,7 +3715,7 @@
       <c r="A96" s="55"/>
       <c r="B96" s="55"/>
       <c r="C96" s="55"/>
-      <c r="D96" s="55"/>
+      <c r="D96" s="57"/>
       <c r="E96" s="55"/>
       <c r="F96" s="55"/>
       <c r="G96" s="54"/>
@@ -3707,7 +3733,7 @@
       <c r="A97" s="55"/>
       <c r="B97" s="55"/>
       <c r="C97" s="55"/>
-      <c r="D97" s="55"/>
+      <c r="D97" s="57"/>
       <c r="E97" s="55"/>
       <c r="F97" s="55"/>
       <c r="G97" s="54"/>
@@ -3725,7 +3751,7 @@
       <c r="A98" s="55"/>
       <c r="B98" s="55"/>
       <c r="C98" s="55"/>
-      <c r="D98" s="55"/>
+      <c r="D98" s="57"/>
       <c r="E98" s="55"/>
       <c r="F98" s="55"/>
       <c r="G98" s="54"/>
@@ -3743,7 +3769,7 @@
       <c r="A99" s="55"/>
       <c r="B99" s="55"/>
       <c r="C99" s="55"/>
-      <c r="D99" s="55"/>
+      <c r="D99" s="57"/>
       <c r="E99" s="55"/>
       <c r="F99" s="55"/>
       <c r="G99" s="54"/>
@@ -3761,7 +3787,7 @@
       <c r="A100" s="55"/>
       <c r="B100" s="55"/>
       <c r="C100" s="55"/>
-      <c r="D100" s="55"/>
+      <c r="D100" s="57"/>
       <c r="E100" s="55"/>
       <c r="F100" s="55"/>
       <c r="G100" s="54"/>
@@ -3779,7 +3805,7 @@
       <c r="A101" s="55"/>
       <c r="B101" s="55"/>
       <c r="C101" s="55"/>
-      <c r="D101" s="55"/>
+      <c r="D101" s="57"/>
       <c r="E101" s="55"/>
       <c r="F101" s="55"/>
       <c r="G101" s="54"/>
@@ -3797,7 +3823,7 @@
       <c r="A102" s="55"/>
       <c r="B102" s="55"/>
       <c r="C102" s="55"/>
-      <c r="D102" s="55"/>
+      <c r="D102" s="57"/>
       <c r="E102" s="55"/>
       <c r="F102" s="55"/>
       <c r="G102" s="54"/>
@@ -3815,7 +3841,7 @@
       <c r="A103" s="55"/>
       <c r="B103" s="55"/>
       <c r="C103" s="55"/>
-      <c r="D103" s="55"/>
+      <c r="D103" s="57"/>
       <c r="E103" s="55"/>
       <c r="F103" s="55"/>
       <c r="G103" s="54"/>
@@ -3833,7 +3859,7 @@
       <c r="A104" s="55"/>
       <c r="B104" s="55"/>
       <c r="C104" s="55"/>
-      <c r="D104" s="55"/>
+      <c r="D104" s="57"/>
       <c r="E104" s="55"/>
       <c r="F104" s="55"/>
       <c r="G104" s="54"/>
@@ -3851,7 +3877,7 @@
       <c r="A105" s="55"/>
       <c r="B105" s="55"/>
       <c r="C105" s="55"/>
-      <c r="D105" s="55"/>
+      <c r="D105" s="57"/>
       <c r="E105" s="55"/>
       <c r="F105" s="55"/>
       <c r="G105" s="54"/>
@@ -3869,7 +3895,7 @@
       <c r="A106" s="55"/>
       <c r="B106" s="55"/>
       <c r="C106" s="55"/>
-      <c r="D106" s="55"/>
+      <c r="D106" s="57"/>
       <c r="E106" s="55"/>
       <c r="F106" s="55"/>
       <c r="G106" s="54"/>
@@ -3887,7 +3913,7 @@
       <c r="A107" s="55"/>
       <c r="B107" s="55"/>
       <c r="C107" s="55"/>
-      <c r="D107" s="55"/>
+      <c r="D107" s="57"/>
       <c r="E107" s="55"/>
       <c r="F107" s="55"/>
       <c r="G107" s="54"/>
@@ -3905,7 +3931,7 @@
       <c r="A108" s="55"/>
       <c r="B108" s="55"/>
       <c r="C108" s="55"/>
-      <c r="D108" s="55"/>
+      <c r="D108" s="57"/>
       <c r="E108" s="55"/>
       <c r="F108" s="55"/>
       <c r="G108" s="54"/>
@@ -3923,7 +3949,7 @@
       <c r="A109" s="55"/>
       <c r="B109" s="55"/>
       <c r="C109" s="55"/>
-      <c r="D109" s="55"/>
+      <c r="D109" s="57"/>
       <c r="E109" s="55"/>
       <c r="F109" s="55"/>
       <c r="G109" s="54"/>
@@ -3941,7 +3967,7 @@
       <c r="A110" s="55"/>
       <c r="B110" s="55"/>
       <c r="C110" s="55"/>
-      <c r="D110" s="55"/>
+      <c r="D110" s="57"/>
       <c r="E110" s="55"/>
       <c r="F110" s="55"/>
       <c r="G110" s="54"/>
@@ -3959,7 +3985,7 @@
       <c r="A111" s="55"/>
       <c r="B111" s="55"/>
       <c r="C111" s="55"/>
-      <c r="D111" s="55"/>
+      <c r="D111" s="57"/>
       <c r="E111" s="55"/>
       <c r="F111" s="55"/>
       <c r="G111" s="54"/>
@@ -3977,7 +4003,7 @@
       <c r="A112" s="55"/>
       <c r="B112" s="55"/>
       <c r="C112" s="55"/>
-      <c r="D112" s="55"/>
+      <c r="D112" s="57"/>
       <c r="E112" s="55"/>
       <c r="F112" s="55"/>
       <c r="G112" s="54"/>
@@ -3995,7 +4021,7 @@
       <c r="A113" s="55"/>
       <c r="B113" s="55"/>
       <c r="C113" s="55"/>
-      <c r="D113" s="55"/>
+      <c r="D113" s="57"/>
       <c r="E113" s="55"/>
       <c r="F113" s="55"/>
       <c r="G113" s="54"/>
@@ -4013,7 +4039,7 @@
       <c r="A114" s="55"/>
       <c r="B114" s="55"/>
       <c r="C114" s="55"/>
-      <c r="D114" s="55"/>
+      <c r="D114" s="57"/>
       <c r="E114" s="55"/>
       <c r="F114" s="55"/>
       <c r="G114" s="54"/>
@@ -4031,7 +4057,7 @@
       <c r="A115" s="55"/>
       <c r="B115" s="55"/>
       <c r="C115" s="55"/>
-      <c r="D115" s="55"/>
+      <c r="D115" s="57"/>
       <c r="E115" s="55"/>
       <c r="F115" s="55"/>
       <c r="G115" s="54"/>
@@ -4049,7 +4075,7 @@
       <c r="A116" s="55"/>
       <c r="B116" s="55"/>
       <c r="C116" s="55"/>
-      <c r="D116" s="55"/>
+      <c r="D116" s="57"/>
       <c r="E116" s="55"/>
       <c r="F116" s="55"/>
       <c r="G116" s="54"/>
@@ -4067,7 +4093,7 @@
       <c r="A117" s="55"/>
       <c r="B117" s="55"/>
       <c r="C117" s="55"/>
-      <c r="D117" s="55"/>
+      <c r="D117" s="57"/>
       <c r="E117" s="55"/>
       <c r="F117" s="55"/>
       <c r="G117" s="54"/>
@@ -4085,7 +4111,7 @@
       <c r="A118" s="55"/>
       <c r="B118" s="55"/>
       <c r="C118" s="55"/>
-      <c r="D118" s="55"/>
+      <c r="D118" s="57"/>
       <c r="E118" s="55"/>
       <c r="F118" s="55"/>
       <c r="G118" s="54"/>
@@ -4103,7 +4129,7 @@
       <c r="A119" s="55"/>
       <c r="B119" s="55"/>
       <c r="C119" s="55"/>
-      <c r="D119" s="55"/>
+      <c r="D119" s="57"/>
       <c r="E119" s="55"/>
       <c r="F119" s="55"/>
       <c r="G119" s="54"/>
@@ -4121,7 +4147,7 @@
       <c r="A120" s="55"/>
       <c r="B120" s="55"/>
       <c r="C120" s="55"/>
-      <c r="D120" s="55"/>
+      <c r="D120" s="57"/>
       <c r="E120" s="55"/>
       <c r="F120" s="55"/>
       <c r="G120" s="54"/>
@@ -4139,7 +4165,7 @@
       <c r="A121" s="55"/>
       <c r="B121" s="55"/>
       <c r="C121" s="55"/>
-      <c r="D121" s="55"/>
+      <c r="D121" s="57"/>
       <c r="E121" s="55"/>
       <c r="F121" s="55"/>
       <c r="G121" s="54"/>
@@ -4157,7 +4183,7 @@
       <c r="A122" s="55"/>
       <c r="B122" s="55"/>
       <c r="C122" s="55"/>
-      <c r="D122" s="55"/>
+      <c r="D122" s="57"/>
       <c r="E122" s="55"/>
       <c r="F122" s="55"/>
       <c r="G122" s="54"/>
@@ -4175,7 +4201,7 @@
       <c r="A123" s="55"/>
       <c r="B123" s="55"/>
       <c r="C123" s="55"/>
-      <c r="D123" s="55"/>
+      <c r="D123" s="57"/>
       <c r="E123" s="55"/>
       <c r="F123" s="55"/>
       <c r="G123" s="54"/>
@@ -4193,7 +4219,7 @@
       <c r="A124" s="55"/>
       <c r="B124" s="55"/>
       <c r="C124" s="55"/>
-      <c r="D124" s="55"/>
+      <c r="D124" s="57"/>
       <c r="E124" s="55"/>
       <c r="F124" s="55"/>
       <c r="G124" s="54"/>
@@ -4211,7 +4237,7 @@
       <c r="A125" s="55"/>
       <c r="B125" s="55"/>
       <c r="C125" s="55"/>
-      <c r="D125" s="55"/>
+      <c r="D125" s="57"/>
       <c r="E125" s="55"/>
       <c r="F125" s="55"/>
       <c r="G125" s="54"/>
@@ -4229,7 +4255,7 @@
       <c r="A126" s="55"/>
       <c r="B126" s="55"/>
       <c r="C126" s="55"/>
-      <c r="D126" s="55"/>
+      <c r="D126" s="57"/>
       <c r="E126" s="55"/>
       <c r="F126" s="55"/>
       <c r="G126" s="54"/>
@@ -4247,7 +4273,7 @@
       <c r="A127" s="55"/>
       <c r="B127" s="55"/>
       <c r="C127" s="55"/>
-      <c r="D127" s="55"/>
+      <c r="D127" s="57"/>
       <c r="E127" s="55"/>
       <c r="F127" s="55"/>
       <c r="G127" s="54"/>
@@ -4265,7 +4291,7 @@
       <c r="A128" s="55"/>
       <c r="B128" s="55"/>
       <c r="C128" s="55"/>
-      <c r="D128" s="55"/>
+      <c r="D128" s="57"/>
       <c r="E128" s="55"/>
       <c r="F128" s="55"/>
       <c r="G128" s="54"/>
@@ -4283,7 +4309,7 @@
       <c r="A129" s="55"/>
       <c r="B129" s="55"/>
       <c r="C129" s="55"/>
-      <c r="D129" s="55"/>
+      <c r="D129" s="57"/>
       <c r="E129" s="55"/>
       <c r="F129" s="55"/>
       <c r="H129" s="55"/>
@@ -4300,7 +4326,7 @@
       <c r="A130" s="55"/>
       <c r="B130" s="55"/>
       <c r="C130" s="55"/>
-      <c r="D130" s="55"/>
+      <c r="D130" s="57"/>
       <c r="E130" s="55"/>
       <c r="F130" s="55"/>
       <c r="H130" s="55"/>
@@ -4317,7 +4343,7 @@
       <c r="A131" s="55"/>
       <c r="B131" s="55"/>
       <c r="C131" s="55"/>
-      <c r="D131" s="55"/>
+      <c r="D131" s="57"/>
       <c r="E131" s="55"/>
       <c r="F131" s="55"/>
       <c r="H131" s="55"/>

--- a/TestCase/KG__ERP__IntegrationTestCase__EmployeeLeave__2019-08-05__v1.0.0.xlsx
+++ b/TestCase/KG__ERP__IntegrationTestCase__EmployeeLeave__2019-08-05__v1.0.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="886" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="886" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="(0) Guidelines" sheetId="2" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="(2) Test Case Test Log" sheetId="1" r:id="rId3"/>
     <sheet name="(3) Expected Data Reference" sheetId="5" r:id="rId4"/>
     <sheet name="(4) Actual Data Reference" sheetId="6" r:id="rId5"/>
+    <sheet name="Findings" sheetId="9" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'(2) Test Case Test Log'!#REF!</definedName>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="144">
   <si>
     <t>General Guidelines</t>
   </si>
@@ -489,6 +490,39 @@
   </si>
   <si>
     <t>Non-privileged users are not allowed to access the page</t>
+  </si>
+  <si>
+    <t>20/08/2019</t>
+  </si>
+  <si>
+    <t>Needed</t>
+  </si>
+  <si>
+    <t>Remove</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>Leave</t>
+  </si>
+  <si>
+    <t>Application Date must be showed</t>
+  </si>
+  <si>
+    <t>Reason for denied</t>
+  </si>
+  <si>
+    <t>Logout option missing sometimes</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Line Manager</t>
+  </si>
+  <si>
+    <t>HRD Admin</t>
   </si>
 </sst>
 </file>
@@ -500,7 +534,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="m/d/yyyy;@"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -633,6 +667,38 @@
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -852,7 +918,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1067,6 +1133,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1106,26 +1193,12 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1907,14 +1980,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F8" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+    <sheetView topLeftCell="F8" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="15.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="99" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" style="86" customWidth="1"/>
     <col min="5" max="5" width="20.7109375" customWidth="1"/>
     <col min="6" max="6" width="46.140625" customWidth="1"/>
     <col min="7" max="7" width="20.7109375" style="78" customWidth="1"/>
@@ -1928,7 +2001,7 @@
       <c r="A1" s="26"/>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
-      <c r="D1" s="97"/>
+      <c r="D1" s="84"/>
       <c r="E1" s="26"/>
       <c r="F1" s="26"/>
       <c r="G1" s="76"/>
@@ -1948,7 +2021,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="24"/>
-      <c r="D2" s="98"/>
+      <c r="D2" s="85"/>
       <c r="E2" s="24"/>
       <c r="F2" s="24"/>
       <c r="G2" s="77"/>
@@ -1967,10 +2040,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="4"/>
-      <c r="D4" s="87" t="s">
+      <c r="D4" s="94" t="s">
         <v>103</v>
       </c>
-      <c r="E4" s="87"/>
+      <c r="E4" s="94"/>
       <c r="F4" s="4"/>
       <c r="H4" s="9"/>
       <c r="I4" s="32"/>
@@ -2003,8 +2076,8 @@
         <v>24</v>
       </c>
       <c r="C6" s="4"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
       <c r="F6" s="4"/>
       <c r="H6" s="9"/>
       <c r="I6" s="32"/>
@@ -2035,24 +2108,24 @@
     </row>
     <row r="8" spans="1:16" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A8" s="27"/>
-      <c r="B8" s="96" t="s">
+      <c r="B8" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="96"/>
-      <c r="G8" s="96"/>
-      <c r="H8" s="96"/>
-      <c r="I8" s="96"/>
-      <c r="J8" s="96"/>
-      <c r="K8" s="84" t="s">
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="L8" s="84"/>
-      <c r="M8" s="84"/>
-      <c r="N8" s="84"/>
-      <c r="O8" s="84"/>
+      <c r="L8" s="91"/>
+      <c r="M8" s="91"/>
+      <c r="N8" s="91"/>
+      <c r="O8" s="91"/>
       <c r="P8" s="40" t="s">
         <v>13</v>
       </c>
@@ -2107,22 +2180,22 @@
     </row>
     <row r="10" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="27"/>
-      <c r="B10" s="88" t="s">
+      <c r="B10" s="95" t="s">
         <v>104</v>
       </c>
-      <c r="C10" s="91" t="s">
+      <c r="C10" s="98" t="s">
         <v>95</v>
       </c>
-      <c r="D10" s="100" t="s">
+      <c r="D10" s="87" t="s">
         <v>97</v>
       </c>
-      <c r="E10" s="94" t="s">
+      <c r="E10" s="101" t="s">
         <v>106</v>
       </c>
       <c r="F10" s="67" t="s">
         <v>108</v>
       </c>
-      <c r="G10" s="103" t="s">
+      <c r="G10" s="90" t="s">
         <v>132</v>
       </c>
       <c r="H10" s="74" t="s">
@@ -2139,12 +2212,12 @@
     </row>
     <row r="11" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="27"/>
-      <c r="B11" s="89"/>
-      <c r="C11" s="92"/>
-      <c r="D11" s="100" t="s">
+      <c r="B11" s="96"/>
+      <c r="C11" s="99"/>
+      <c r="D11" s="87" t="s">
         <v>98</v>
       </c>
-      <c r="E11" s="95"/>
+      <c r="E11" s="102"/>
       <c r="F11" s="67" t="s">
         <v>112</v>
       </c>
@@ -2162,12 +2235,12 @@
     </row>
     <row r="12" spans="1:16" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="27"/>
-      <c r="B12" s="89"/>
-      <c r="C12" s="92"/>
-      <c r="D12" s="100" t="s">
+      <c r="B12" s="96"/>
+      <c r="C12" s="99"/>
+      <c r="D12" s="87" t="s">
         <v>114</v>
       </c>
-      <c r="E12" s="95"/>
+      <c r="E12" s="102"/>
       <c r="F12" s="69" t="s">
         <v>109</v>
       </c>
@@ -2185,12 +2258,12 @@
     </row>
     <row r="13" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="27"/>
-      <c r="B13" s="89"/>
-      <c r="C13" s="92"/>
-      <c r="D13" s="100" t="s">
+      <c r="B13" s="96"/>
+      <c r="C13" s="99"/>
+      <c r="D13" s="87" t="s">
         <v>115</v>
       </c>
-      <c r="E13" s="95"/>
+      <c r="E13" s="102"/>
       <c r="F13" s="74" t="s">
         <v>110</v>
       </c>
@@ -2208,12 +2281,12 @@
     </row>
     <row r="14" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="27"/>
-      <c r="B14" s="89"/>
-      <c r="C14" s="92"/>
-      <c r="D14" s="100" t="s">
+      <c r="B14" s="96"/>
+      <c r="C14" s="99"/>
+      <c r="D14" s="87" t="s">
         <v>116</v>
       </c>
-      <c r="E14" s="95"/>
+      <c r="E14" s="102"/>
       <c r="F14" s="69" t="s">
         <v>111</v>
       </c>
@@ -2231,12 +2304,12 @@
     </row>
     <row r="15" spans="1:16" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="27"/>
-      <c r="B15" s="89"/>
-      <c r="C15" s="92"/>
-      <c r="D15" s="100" t="s">
+      <c r="B15" s="96"/>
+      <c r="C15" s="99"/>
+      <c r="D15" s="87" t="s">
         <v>117</v>
       </c>
-      <c r="E15" s="95"/>
+      <c r="E15" s="102"/>
       <c r="F15" s="69" t="s">
         <v>121</v>
       </c>
@@ -2253,12 +2326,12 @@
     </row>
     <row r="16" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="27"/>
-      <c r="B16" s="89"/>
-      <c r="C16" s="92"/>
-      <c r="D16" s="100" t="s">
+      <c r="B16" s="96"/>
+      <c r="C16" s="99"/>
+      <c r="D16" s="87" t="s">
         <v>118</v>
       </c>
-      <c r="E16" s="95"/>
+      <c r="E16" s="102"/>
       <c r="F16" s="69" t="s">
         <v>113</v>
       </c>
@@ -2275,12 +2348,12 @@
     </row>
     <row r="17" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="55"/>
-      <c r="B17" s="89"/>
-      <c r="C17" s="92"/>
-      <c r="D17" s="100" t="s">
+      <c r="B17" s="96"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="87" t="s">
         <v>123</v>
       </c>
-      <c r="E17" s="85" t="s">
+      <c r="E17" s="92" t="s">
         <v>107</v>
       </c>
       <c r="F17" s="75" t="s">
@@ -2299,12 +2372,12 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="55"/>
-      <c r="B18" s="89"/>
-      <c r="C18" s="92"/>
-      <c r="D18" s="100" t="s">
+      <c r="B18" s="96"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="87" t="s">
         <v>119</v>
       </c>
-      <c r="E18" s="86"/>
+      <c r="E18" s="93"/>
       <c r="F18" s="62" t="s">
         <v>125</v>
       </c>
@@ -2321,9 +2394,9 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="55"/>
-      <c r="B19" s="89"/>
-      <c r="C19" s="92"/>
-      <c r="D19" s="100"/>
+      <c r="B19" s="96"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="87"/>
       <c r="E19" s="62"/>
       <c r="F19" s="62"/>
       <c r="G19" s="62"/>
@@ -2339,9 +2412,9 @@
     </row>
     <row r="20" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A20" s="55"/>
-      <c r="B20" s="90"/>
-      <c r="C20" s="93"/>
-      <c r="D20" s="100" t="s">
+      <c r="B20" s="97"/>
+      <c r="C20" s="100"/>
+      <c r="D20" s="87" t="s">
         <v>120</v>
       </c>
       <c r="E20" s="62" t="s">
@@ -2365,7 +2438,7 @@
       <c r="A21" s="55"/>
       <c r="B21" s="62"/>
       <c r="C21" s="62"/>
-      <c r="D21" s="101"/>
+      <c r="D21" s="88"/>
       <c r="E21" s="62"/>
       <c r="F21" s="62"/>
       <c r="G21" s="62"/>
@@ -2383,7 +2456,7 @@
       <c r="A22" s="55"/>
       <c r="B22" s="62"/>
       <c r="C22" s="62"/>
-      <c r="D22" s="101"/>
+      <c r="D22" s="88"/>
       <c r="E22" s="62"/>
       <c r="F22" s="62"/>
       <c r="G22" s="62"/>
@@ -2401,7 +2474,7 @@
       <c r="A23" s="55"/>
       <c r="B23" s="62"/>
       <c r="C23" s="62"/>
-      <c r="D23" s="101"/>
+      <c r="D23" s="88"/>
       <c r="E23" s="62"/>
       <c r="F23" s="62"/>
       <c r="G23" s="62"/>
@@ -2419,7 +2492,7 @@
       <c r="A24" s="55"/>
       <c r="B24" s="62"/>
       <c r="C24" s="62"/>
-      <c r="D24" s="101"/>
+      <c r="D24" s="88"/>
       <c r="E24" s="62"/>
       <c r="F24" s="62"/>
       <c r="G24" s="62"/>
@@ -2437,7 +2510,7 @@
       <c r="A25" s="55"/>
       <c r="B25" s="62"/>
       <c r="C25" s="62"/>
-      <c r="D25" s="101"/>
+      <c r="D25" s="88"/>
       <c r="E25" s="62"/>
       <c r="F25" s="62"/>
       <c r="G25" s="62"/>
@@ -2455,7 +2528,7 @@
       <c r="A26" s="55"/>
       <c r="B26" s="62"/>
       <c r="C26" s="62"/>
-      <c r="D26" s="101"/>
+      <c r="D26" s="88"/>
       <c r="E26" s="62"/>
       <c r="F26" s="62"/>
       <c r="G26" s="62"/>
@@ -2473,7 +2546,7 @@
       <c r="A27" s="55"/>
       <c r="B27" s="62"/>
       <c r="C27" s="62"/>
-      <c r="D27" s="101"/>
+      <c r="D27" s="88"/>
       <c r="E27" s="62"/>
       <c r="F27" s="62"/>
       <c r="G27" s="62"/>
@@ -2491,7 +2564,7 @@
       <c r="A28" s="55"/>
       <c r="B28" s="62"/>
       <c r="C28" s="62"/>
-      <c r="D28" s="101"/>
+      <c r="D28" s="88"/>
       <c r="E28" s="62"/>
       <c r="F28" s="62"/>
       <c r="G28" s="62"/>
@@ -2509,7 +2582,7 @@
       <c r="A29" s="55"/>
       <c r="B29" s="62"/>
       <c r="C29" s="62"/>
-      <c r="D29" s="101"/>
+      <c r="D29" s="88"/>
       <c r="E29" s="62"/>
       <c r="F29" s="62"/>
       <c r="G29" s="62"/>
@@ -2527,7 +2600,7 @@
       <c r="A30" s="55"/>
       <c r="B30" s="62"/>
       <c r="C30" s="62"/>
-      <c r="D30" s="101"/>
+      <c r="D30" s="88"/>
       <c r="E30" s="62"/>
       <c r="F30" s="62"/>
       <c r="G30" s="62"/>
@@ -2545,7 +2618,7 @@
       <c r="A31" s="55"/>
       <c r="B31" s="62"/>
       <c r="C31" s="62"/>
-      <c r="D31" s="101"/>
+      <c r="D31" s="88"/>
       <c r="E31" s="62"/>
       <c r="F31" s="62"/>
       <c r="G31" s="62"/>
@@ -2563,7 +2636,7 @@
       <c r="A32" s="55"/>
       <c r="B32" s="62"/>
       <c r="C32" s="62"/>
-      <c r="D32" s="101"/>
+      <c r="D32" s="88"/>
       <c r="E32" s="62"/>
       <c r="F32" s="62"/>
       <c r="G32" s="54"/>
@@ -2581,7 +2654,7 @@
       <c r="A33" s="55"/>
       <c r="B33" s="62"/>
       <c r="C33" s="62"/>
-      <c r="D33" s="101"/>
+      <c r="D33" s="88"/>
       <c r="E33" s="62"/>
       <c r="F33" s="62"/>
       <c r="G33" s="54"/>
@@ -2599,7 +2672,7 @@
       <c r="A34" s="55"/>
       <c r="B34" s="62"/>
       <c r="C34" s="62"/>
-      <c r="D34" s="101"/>
+      <c r="D34" s="88"/>
       <c r="E34" s="62"/>
       <c r="F34" s="62"/>
       <c r="G34" s="54"/>
@@ -2617,7 +2690,7 @@
       <c r="A35" s="55"/>
       <c r="B35" s="54"/>
       <c r="C35" s="54"/>
-      <c r="D35" s="102"/>
+      <c r="D35" s="89"/>
       <c r="E35" s="54"/>
       <c r="F35" s="54"/>
       <c r="G35" s="54"/>
@@ -2635,7 +2708,7 @@
       <c r="A36" s="55"/>
       <c r="B36" s="54"/>
       <c r="C36" s="54"/>
-      <c r="D36" s="102"/>
+      <c r="D36" s="89"/>
       <c r="E36" s="54"/>
       <c r="F36" s="54"/>
       <c r="G36" s="54"/>
@@ -2653,7 +2726,7 @@
       <c r="A37" s="55"/>
       <c r="B37" s="54"/>
       <c r="C37" s="54"/>
-      <c r="D37" s="102"/>
+      <c r="D37" s="89"/>
       <c r="E37" s="54"/>
       <c r="F37" s="54"/>
       <c r="G37" s="54"/>
@@ -2671,7 +2744,7 @@
       <c r="A38" s="55"/>
       <c r="B38" s="54"/>
       <c r="C38" s="54"/>
-      <c r="D38" s="102"/>
+      <c r="D38" s="89"/>
       <c r="E38" s="54"/>
       <c r="F38" s="54"/>
       <c r="G38" s="54"/>
@@ -2689,7 +2762,7 @@
       <c r="A39" s="55"/>
       <c r="B39" s="54"/>
       <c r="C39" s="54"/>
-      <c r="D39" s="102"/>
+      <c r="D39" s="89"/>
       <c r="E39" s="54"/>
       <c r="F39" s="54"/>
       <c r="G39" s="54"/>
@@ -2707,7 +2780,7 @@
       <c r="A40" s="55"/>
       <c r="B40" s="54"/>
       <c r="C40" s="54"/>
-      <c r="D40" s="102"/>
+      <c r="D40" s="89"/>
       <c r="E40" s="54"/>
       <c r="F40" s="54"/>
       <c r="G40" s="54"/>
@@ -2725,7 +2798,7 @@
       <c r="A41" s="55"/>
       <c r="B41" s="54"/>
       <c r="C41" s="54"/>
-      <c r="D41" s="102"/>
+      <c r="D41" s="89"/>
       <c r="E41" s="54"/>
       <c r="F41" s="54"/>
       <c r="G41" s="54"/>
@@ -2743,7 +2816,7 @@
       <c r="A42" s="55"/>
       <c r="B42" s="54"/>
       <c r="C42" s="54"/>
-      <c r="D42" s="102"/>
+      <c r="D42" s="89"/>
       <c r="E42" s="54"/>
       <c r="F42" s="54"/>
       <c r="G42" s="54"/>
@@ -2761,7 +2834,7 @@
       <c r="A43" s="55"/>
       <c r="B43" s="54"/>
       <c r="C43" s="54"/>
-      <c r="D43" s="102"/>
+      <c r="D43" s="89"/>
       <c r="E43" s="54"/>
       <c r="F43" s="54"/>
       <c r="G43" s="54"/>
@@ -2779,7 +2852,7 @@
       <c r="A44" s="55"/>
       <c r="B44" s="54"/>
       <c r="C44" s="54"/>
-      <c r="D44" s="102"/>
+      <c r="D44" s="89"/>
       <c r="E44" s="54"/>
       <c r="F44" s="54"/>
       <c r="G44" s="54"/>
@@ -2797,7 +2870,7 @@
       <c r="A45" s="55"/>
       <c r="B45" s="54"/>
       <c r="C45" s="54"/>
-      <c r="D45" s="102"/>
+      <c r="D45" s="89"/>
       <c r="E45" s="54"/>
       <c r="F45" s="54"/>
       <c r="G45" s="54"/>
@@ -2815,7 +2888,7 @@
       <c r="A46" s="55"/>
       <c r="B46" s="54"/>
       <c r="C46" s="54"/>
-      <c r="D46" s="102"/>
+      <c r="D46" s="89"/>
       <c r="E46" s="54"/>
       <c r="F46" s="54"/>
       <c r="G46" s="54"/>
@@ -2833,7 +2906,7 @@
       <c r="A47" s="55"/>
       <c r="B47" s="54"/>
       <c r="C47" s="54"/>
-      <c r="D47" s="102"/>
+      <c r="D47" s="89"/>
       <c r="E47" s="54"/>
       <c r="F47" s="54"/>
       <c r="G47" s="54"/>
@@ -2851,7 +2924,7 @@
       <c r="A48" s="55"/>
       <c r="B48" s="54"/>
       <c r="C48" s="54"/>
-      <c r="D48" s="102"/>
+      <c r="D48" s="89"/>
       <c r="E48" s="54"/>
       <c r="F48" s="54"/>
       <c r="G48" s="54"/>
@@ -2869,7 +2942,7 @@
       <c r="A49" s="55"/>
       <c r="B49" s="54"/>
       <c r="C49" s="54"/>
-      <c r="D49" s="102"/>
+      <c r="D49" s="89"/>
       <c r="E49" s="54"/>
       <c r="F49" s="54"/>
       <c r="G49" s="54"/>
@@ -2887,7 +2960,7 @@
       <c r="A50" s="55"/>
       <c r="B50" s="54"/>
       <c r="C50" s="54"/>
-      <c r="D50" s="102"/>
+      <c r="D50" s="89"/>
       <c r="E50" s="54"/>
       <c r="F50" s="54"/>
       <c r="G50" s="54"/>
@@ -2905,7 +2978,7 @@
       <c r="A51" s="55"/>
       <c r="B51" s="54"/>
       <c r="C51" s="54"/>
-      <c r="D51" s="102"/>
+      <c r="D51" s="89"/>
       <c r="E51" s="54"/>
       <c r="F51" s="54"/>
       <c r="G51" s="54"/>
@@ -2923,7 +2996,7 @@
       <c r="A52" s="55"/>
       <c r="B52" s="54"/>
       <c r="C52" s="54"/>
-      <c r="D52" s="102"/>
+      <c r="D52" s="89"/>
       <c r="E52" s="54"/>
       <c r="F52" s="54"/>
       <c r="G52" s="54"/>
@@ -2941,7 +3014,7 @@
       <c r="A53" s="55"/>
       <c r="B53" s="54"/>
       <c r="C53" s="54"/>
-      <c r="D53" s="102"/>
+      <c r="D53" s="89"/>
       <c r="E53" s="54"/>
       <c r="F53" s="54"/>
       <c r="G53" s="54"/>
@@ -2959,7 +3032,7 @@
       <c r="A54" s="55"/>
       <c r="B54" s="54"/>
       <c r="C54" s="54"/>
-      <c r="D54" s="102"/>
+      <c r="D54" s="89"/>
       <c r="E54" s="54"/>
       <c r="F54" s="54"/>
       <c r="G54" s="54"/>
@@ -2977,7 +3050,7 @@
       <c r="A55" s="55"/>
       <c r="B55" s="54"/>
       <c r="C55" s="54"/>
-      <c r="D55" s="102"/>
+      <c r="D55" s="89"/>
       <c r="E55" s="54"/>
       <c r="F55" s="54"/>
       <c r="G55" s="54"/>
@@ -2995,7 +3068,7 @@
       <c r="A56" s="55"/>
       <c r="B56" s="54"/>
       <c r="C56" s="54"/>
-      <c r="D56" s="102"/>
+      <c r="D56" s="89"/>
       <c r="E56" s="54"/>
       <c r="F56" s="54"/>
       <c r="G56" s="54"/>
@@ -3013,7 +3086,7 @@
       <c r="A57" s="55"/>
       <c r="B57" s="54"/>
       <c r="C57" s="54"/>
-      <c r="D57" s="102"/>
+      <c r="D57" s="89"/>
       <c r="E57" s="54"/>
       <c r="F57" s="54"/>
       <c r="G57" s="54"/>
@@ -3031,7 +3104,7 @@
       <c r="A58" s="55"/>
       <c r="B58" s="54"/>
       <c r="C58" s="54"/>
-      <c r="D58" s="102"/>
+      <c r="D58" s="89"/>
       <c r="E58" s="54"/>
       <c r="F58" s="54"/>
       <c r="G58" s="54"/>
@@ -3049,7 +3122,7 @@
       <c r="A59" s="55"/>
       <c r="B59" s="54"/>
       <c r="C59" s="54"/>
-      <c r="D59" s="102"/>
+      <c r="D59" s="89"/>
       <c r="E59" s="54"/>
       <c r="F59" s="54"/>
       <c r="G59" s="54"/>
@@ -4503,4 +4576,81 @@
   </headerFooter>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:I15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" customWidth="1"/>
+    <col min="7" max="7" width="25.85546875" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="9" max="9" width="23.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B1" s="104" t="s">
+        <v>133</v>
+      </c>
+      <c r="G1" s="105" t="s">
+        <v>134</v>
+      </c>
+      <c r="H1" s="106" t="s">
+        <v>135</v>
+      </c>
+      <c r="I1" s="107" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" s="60" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B3" s="60" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" s="60" t="s">
+        <v>137</v>
+      </c>
+      <c r="E3" s="60" t="s">
+        <v>106</v>
+      </c>
+      <c r="G3" s="108" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>